--- a/speedTestDatas.xlsx
+++ b/speedTestDatas.xlsx
@@ -24,17 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>Edge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Firefox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chrome</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -43,6 +35,48 @@
   </si>
   <si>
     <t>Unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firefox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込み</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45,5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -75,12 +109,95 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -89,12 +206,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,135 +548,1266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="B2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>5.05</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
+        <v>3.99</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
+        <v>7.76</v>
+      </c>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A6" s="5">
+        <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="I6" s="5">
+        <f>I5+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A4">
-        <f>A3+1</f>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>3.73</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="Q6" s="5">
+        <f>Q5+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A5">
-        <f t="shared" ref="A5:A11" si="0">A4+1</f>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7">
+        <v>6.21</v>
+      </c>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A7" s="5">
+        <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7:I13" si="1">I6+1</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <v>4.22</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <v>6.17</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="Q7" s="5">
+        <f t="shared" ref="Q7:Q13" si="2">Q6+1</f>
+        <v>3</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>6.24</v>
+      </c>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>6.16</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
+        <v>6.14</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="Q8" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7">
+        <v>6.65</v>
+      </c>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A8">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>4.87</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
+        <v>3.79</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7">
+        <v>6.01</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
+        <v>6.51</v>
+      </c>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A9">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
+        <v>3.71</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <v>6.11</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7">
+        <v>6.59</v>
+      </c>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A10">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>3.86</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7">
+        <v>6.37</v>
+      </c>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A11">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
+        <v>4.17</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7">
+        <v>6.17</v>
+      </c>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="A12">
-        <f>A11+1</f>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
+        <v>6</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7">
+        <v>6.36</v>
+      </c>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A14" s="5">
+        <f>A13+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.85">
-      <c r="B13" t="e">
-        <f>AVERAGE(B3:B12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" t="e">
-        <f t="shared" ref="C13:G13" si="1">AVERAGE(C3:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="I14" s="5">
+        <f>I13+1</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <v>3.97</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8">
+        <v>6.01</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="Q14" s="5">
+        <f>Q13+1</f>
+        <v>10</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8">
+        <v>6.38</v>
+      </c>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="e">
+        <f>AVERAGE(B5:B14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:G15" si="3">AVERAGE(C5:C14)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>5.1120000000000001</v>
+      </c>
+      <c r="G15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5" t="e">
+        <f>AVERAGE(J5:J14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" ref="K15:O15" si="4">AVERAGE(K5:K14)</f>
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="L15" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="4"/>
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="O15" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5" t="e">
+        <f>AVERAGE(R5:R14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="5" t="e">
+        <f t="shared" ref="S15:W15" si="5">AVERAGE(S5:S14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5239999999999991</v>
+      </c>
+      <c r="W15" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>60</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
+        <v>42.31</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
+        <v>60</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6">
+        <v>45.9</v>
+      </c>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A22" s="5">
+        <f>A21+1</f>
+        <v>2</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>54.22</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <v>60</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="I22" s="5">
+        <f>I21+1</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
+        <v>42.37</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <v>60</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="Q22" s="5">
+        <f>Q21+1</f>
+        <v>2</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7">
+        <v>45.8</v>
+      </c>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A23" s="5">
+        <f t="shared" ref="A23:A29" si="6">A22+1</f>
+        <v>3</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>54.08</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>60</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="I23" s="5">
+        <f t="shared" ref="I23:I29" si="7">I22+1</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
+        <v>42.05</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7">
+        <v>60</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="Q23" s="5">
+        <f t="shared" ref="Q23:Q29" si="8">Q22+1</f>
+        <v>3</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A24" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>56.97</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="I24" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
+        <v>37.36</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="Q24" s="5">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A25" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>50.98</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="I25" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
+        <v>42.24</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
+        <v>59.9</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="Q25" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A26" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>52.22</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="I26" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7">
+        <v>42.03</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7">
+        <v>60</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="Q26" s="5">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A27" s="5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7">
+        <v>57.95</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="I27" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7">
+        <v>42.81</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
+        <v>60</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="Q27" s="5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A28" s="5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7">
+        <v>59.01</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="I28" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>42.85</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
+        <v>60</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="Q28" s="5">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A29" s="5">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>57.99</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="I29" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7">
+        <v>60</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="Q29" s="5">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A30" s="5">
+        <f>A29+1</f>
+        <v>10</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
+        <v>59.04</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8">
+        <v>60</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="I30" s="5">
+        <f>I29+1</f>
+        <v>10</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
+        <v>42.68</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8">
+        <v>60</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="Q30" s="5">
+        <f>Q29+1</f>
+        <v>10</v>
+      </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.85">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="e">
+        <f>AVERAGE(B21:B30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" ref="C31:G31" si="9">AVERAGE(C21:C30)</f>
+        <v>56.046000000000006</v>
+      </c>
+      <c r="D31" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G31" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="5" t="e">
+        <f>AVERAGE(J21:J30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" ref="K31:O31" si="10">AVERAGE(K21:K30)</f>
+        <v>41.733000000000004</v>
+      </c>
+      <c r="L31" s="5" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="5" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="O31" s="5" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5" t="e">
+        <f>AVERAGE(R21:R30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="5" t="e">
+        <f t="shared" ref="S31:W31" si="11">AVERAGE(S21:S30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="5" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="5" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" si="11"/>
+        <v>45.866666666666667</v>
+      </c>
+      <c r="W31" s="5" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="18">
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
